--- a/backend/web/example/contact.xlsx
+++ b/backend/web/example/contact.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\website\podv3\backend\web\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="33">
   <si>
     <t>Contact code</t>
   </si>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t>Capture_form</t>
+  </si>
+  <si>
+    <t>Loại sản phẩm</t>
+  </si>
+  <si>
+    <t>Thị trường</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>TMASK</t>
+  </si>
+  <si>
+    <t>Ghi chú khách hàng</t>
   </si>
 </sst>
 </file>
@@ -237,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,6 +276,7 @@
     <xf numFmtId="22" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,23 +557,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O11"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -583,28 +610,34 @@
         <v>7</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>44042.548298611109</v>
       </c>
@@ -624,32 +657,38 @@
       <c r="G2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="10">
-        <v>35435435</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>44042.548298611109</v>
       </c>
@@ -669,32 +708,38 @@
       <c r="G3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="10">
-        <v>35435435</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="K3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="9" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>44044.548298553244</v>
       </c>
@@ -714,32 +759,38 @@
       <c r="G4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="10">
-        <v>35435437</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="H4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="N4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>44044.548298553244</v>
       </c>
@@ -759,32 +810,38 @@
       <c r="G5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="10">
-        <v>35435437</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="H5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="K5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="N5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="Q5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="9" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>44044.548298553244</v>
       </c>
@@ -804,32 +861,38 @@
       <c r="G6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="10">
-        <v>35435437</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="H6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="K6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="N6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="O6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="9" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>44044.548298553244</v>
       </c>
@@ -849,32 +912,38 @@
       <c r="G7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="10">
-        <v>35435437</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="H7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="K7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="N7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="O7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="P7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="Q7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="9" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>44048.548298553244</v>
       </c>
@@ -894,32 +963,38 @@
       <c r="G8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="10">
-        <v>35435441</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="H8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="K8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="N8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="O8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="P8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="Q8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="9" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>44049.548298553244</v>
       </c>
@@ -939,32 +1014,38 @@
       <c r="G9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="10">
-        <v>35435442</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="N9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="O9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="P9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="Q9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="9" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>44050.548298553244</v>
       </c>
@@ -984,32 +1065,38 @@
       <c r="G10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="10">
-        <v>35435443</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="N10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="O10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="P10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="Q10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="9" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>44175.548298611109</v>
       </c>
@@ -1029,29 +1116,35 @@
       <c r="G11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="10">
-        <v>35435443</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="H11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="K11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="N11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="O11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="P11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="Q11" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/backend/web/example/contact.xlsx
+++ b/backend/web/example/contact.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="38">
   <si>
     <t>Contact code</t>
   </si>
@@ -123,6 +123,21 @@
   </si>
   <si>
     <t>Ghi chú khách hàng</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Callback</t>
+  </si>
+  <si>
+    <t>cancel</t>
   </si>
 </sst>
 </file>
@@ -252,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,6 +292,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,15 +594,16 @@
     <col min="9" max="9" width="10" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="3"/>
+    <col min="13" max="13" width="13.21875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -621,23 +640,26 @@
       <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>44042.548298611109</v>
       </c>
@@ -673,22 +695,25 @@
         <v>21</v>
       </c>
       <c r="M2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>44042.548298611109</v>
       </c>
@@ -724,22 +749,25 @@
         <v>21</v>
       </c>
       <c r="M3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>44044.548298553244</v>
       </c>
@@ -775,22 +803,25 @@
         <v>24</v>
       </c>
       <c r="M4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="Q4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="R4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>44044.548298553244</v>
       </c>
@@ -826,22 +857,25 @@
         <v>24</v>
       </c>
       <c r="M5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="Q5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="9" t="s">
+      <c r="R5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>44044.548298553244</v>
       </c>
@@ -877,22 +911,25 @@
         <v>24</v>
       </c>
       <c r="M6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="O6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="P6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="R6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>44044.548298553244</v>
       </c>
@@ -927,23 +964,24 @@
       <c r="L7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="9"/>
+      <c r="N7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="O7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="P7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="Q7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="R7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>44048.548298553244</v>
       </c>
@@ -978,23 +1016,24 @@
       <c r="L8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="9"/>
+      <c r="N8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="O8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="P8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="Q8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="9" t="s">
+      <c r="R8" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>44049.548298553244</v>
       </c>
@@ -1029,23 +1068,24 @@
       <c r="L9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="9"/>
+      <c r="N9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="O9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="9" t="s">
+      <c r="P9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="Q9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="9" t="s">
+      <c r="R9" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>44050.548298553244</v>
       </c>
@@ -1080,23 +1120,24 @@
       <c r="L10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="9"/>
+      <c r="N10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="O10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O10" s="9" t="s">
+      <c r="P10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="Q10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="9" t="s">
+      <c r="R10" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>44175.548298611109</v>
       </c>
@@ -1131,19 +1172,20 @@
       <c r="L11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="9"/>
+      <c r="N11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="9" t="s">
+      <c r="O11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="P11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="Q11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="R11" s="9" t="s">
         <v>13</v>
       </c>
     </row>
